--- a/dotnet-tasks/dotnet-tasks/Resources/input.xlsx
+++ b/dotnet-tasks/dotnet-tasks/Resources/input.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_C#\dotnet-tasks\dotnet-tasks\dotnet-tasks\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAA4C53-39B7-4859-8033-CA126F6E299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A31828-07AC-4626-81B9-2EE204355B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1608" windowWidth="20988" windowHeight="10068" xr2:uid="{9BD75906-70E0-4833-A8F9-EC2A38754F4E}"/>
+    <workbookView xWindow="1092" yWindow="1512" windowWidth="20988" windowHeight="10068" activeTab="2" xr2:uid="{9BD75906-70E0-4833-A8F9-EC2A38754F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -55,6 +57,63 @@
   </si>
   <si>
     <t>Второй нефтеперерабатывающий завод</t>
+  </si>
+  <si>
+    <t>FactoryId</t>
+  </si>
+  <si>
+    <t>ГФУ-2</t>
+  </si>
+  <si>
+    <t>Газофракционирующая установка</t>
+  </si>
+  <si>
+    <t>АВТ-6</t>
+  </si>
+  <si>
+    <t>Атмосферно-вакуумная трубчатка</t>
+  </si>
+  <si>
+    <t>АВТ-10</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>MaxVolume</t>
+  </si>
+  <si>
+    <t>UnitId</t>
+  </si>
+  <si>
+    <t>Резервуар 1</t>
+  </si>
+  <si>
+    <t>Надземный - вертикальный</t>
+  </si>
+  <si>
+    <t>Резервуар 2</t>
+  </si>
+  <si>
+    <t>Надземный - горизонтальный</t>
+  </si>
+  <si>
+    <t>Дополнительный резервуар 24</t>
+  </si>
+  <si>
+    <t>Резервуар 35</t>
+  </si>
+  <si>
+    <t>Резервуар 47</t>
+  </si>
+  <si>
+    <t>Подземный - двустенный</t>
+  </si>
+  <si>
+    <t>Резервуар 256</t>
+  </si>
+  <si>
+    <t>Подводный</t>
   </si>
 </sst>
 </file>
@@ -409,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BF9075-73A9-4BAF-91CA-AAE6091A9DA6}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -455,4 +514,230 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE455AE6-CE65-4AF8-93BB-183C6B661FFA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4711978-A7F6-4D3A-8AB1-7E7FB863FD5E}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>1500</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>2500</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>3000</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6">
+        <v>5000</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>